--- a/Results/Cuadro 1.xlsx
+++ b/Results/Cuadro 1.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">0.484 ± 0.016   b</t>
   </si>
   <si>
-    <t xml:space="preserve">RLT</t>
+    <t xml:space="preserve">RHT</t>
   </si>
   <si>
     <t xml:space="preserve">0.415 ± 0.022  ab   </t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">0.591 ± 0.018     d </t>
   </si>
   <si>
-    <t xml:space="preserve">TMS</t>
+    <t xml:space="preserve">BT</t>
   </si>
   <si>
     <t xml:space="preserve">0.596 ± 0.027  a   </t>
